--- a/data/variables_used.xlsx
+++ b/data/variables_used.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0A88A66D-8F1D-4776-AC79-157FAAF10CB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{80A7C9C2-683D-4B75-9935-09723F18C0FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>BHCK2170</t>
   </si>
@@ -62,13 +63,19 @@
   </si>
   <si>
     <t>CREDIT DERIVATIVES: NOTIONAL AMOUNTS - CREDIT DEFAULTS SWAPS - BENEFICIARY</t>
+  </si>
+  <si>
+    <t>Variable Code</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +83,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,13 +121,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +244,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>117146</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3991B66F-3605-40B8-A3E6-D4977FB5DF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="55997146" cy="12431889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,141 +575,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="12.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="62.3671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="1" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="3">
         <v>29767</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="3">
         <v>2958465</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="3">
         <v>29767</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="3">
         <v>2958465</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="3">
         <v>29767</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="3">
         <v>2958465</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="3">
         <v>31593</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="3">
         <v>2958465</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="3">
         <v>38807</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="3">
         <v>2958465</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="6">
         <v>38807</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="6">
         <v>2958465</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1594C945-C738-46ED-9D72-8F135097A0AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="27" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>